--- a/continew-webapi/src/main/resources/static/stock_move_zh.xlsx
+++ b/continew-webapi/src/main/resources/static/stock_move_zh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\java\continew-admin\continew-webapi\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D906C8-4CE4-456E-B0D2-6577D61E04C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760FF16E-DA1E-43AE-A63B-0B349AAF4CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="4260" windowWidth="30500" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2950" yWindow="3570" windowWidth="30500" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{status}</t>
+    <t>{statusString}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +480,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
